--- a/medicine/Handicap/Griet_Hoet/Griet_Hoet.xlsx
+++ b/medicine/Handicap/Griet_Hoet/Griet_Hoet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Griet Hoet, née le 12 juin 1978 à Destelbergen en Province de Flandre-Orientale[1], est une coureuse cycliste handisport belge concourant en B pour les athlètes ayant une déficience visuelle. Elle concourt en tandem avec Anneleen Monsieur.
+Griet Hoet, née le 12 juin 1978 à Destelbergen en Province de Flandre-Orientale, est une coureuse cycliste handisport belge concourant en B pour les athlètes ayant une déficience visuelle. Elle concourt en tandem avec Anneleen Monsieur.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Jeux paralympiques d'été de 2016, Griet Hoet termine 14e de la course en ligne sur route après que sa chaîne a déraillé trois fois pendant la course[2].
-Lors des Jeux paralympiques d'été de 2020, elle remporte la médaille de bronze du kilomètre sur piste catégorie B avec sa guide Anneleen Monsieur en améliorant d'une seconde son record personnel en 1 min 07 s 943[3]. Quelques jours plus tard, elle est contrainte d'abandonner pendant la course en ligne après une chute[4]. Elle a également pris la 7e place du contre-la-montre sur route et la 4e de la poursuite individuelle[4]. 
-En 2022, elle devient membre de la Commission des athlètes du Comité olympique et interfédéral belge[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Jeux paralympiques d'été de 2016, Griet Hoet termine 14e de la course en ligne sur route après que sa chaîne a déraillé trois fois pendant la course.
+Lors des Jeux paralympiques d'été de 2020, elle remporte la médaille de bronze du kilomètre sur piste catégorie B avec sa guide Anneleen Monsieur en améliorant d'une seconde son record personnel en 1 min 07 s 943. Quelques jours plus tard, elle est contrainte d'abandonner pendant la course en ligne après une chute. Elle a également pris la 7e place du contre-la-montre sur route et la 4e de la poursuite individuelle. 
+En 2022, elle devient membre de la Commission des athlètes du Comité olympique et interfédéral belge.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeux paralympiques
- médaille de bronze du kilomètre (piste) B aux Jeux paralympiques d'été de 2020 à Tokyo
+          <t>Jeux paralympiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> médaille de bronze du kilomètre (piste) B aux Jeux paralympiques d'été de 2020 à Tokyo
 </t>
         </is>
       </c>
